--- a/app/tables/tabla_newton.xlsx
+++ b/app/tables/tabla_newton.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.94081210556785</t>
+          <t>2.03049645777783</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.61081717932328</t>
+          <t>1.1500233459578</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.2963946966622</t>
+          <t>1.21236596596947</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>33.2918370670075</t>
+          <t>0.885512699177286</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19.516634836473</t>
+          <t>0.64559739903862</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.43895166517812</t>
+          <t>0.0463501710601939</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0100590734059046</t>
+          <t>0.0003239746094877</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.74362429644456e-07</t>
+          <t>1.52778864409253e-08</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_newton.xlsx
+++ b/app/tables/tabla_newton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,138 +521,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>8.59671944561366+3.59373176369466i</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>-14.0266493449853+0.822034981839336i</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.21236596596947</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>31.4240315496418-20.6397210939041i</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-0.964273451333749-16.5716713177864i</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.885512699177286</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>30.2080466799425-1.16100408951972i</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-0.653877848707531-0.892101215260198i</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.64559739903862</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>31.0452273877977+0.00934216570299462i</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-0.00288855387566755+0.00723571767701737i</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.0463501710601939</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>31.048956033346-3.26478490101853e-07i</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-2.66552561356548e-07-2.52873779262025e-07i</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.0003239746094877</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>31.0489563774848+1.05327800543287e-15i</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0+8.15816045411035e-16i</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.52778864409253e-08</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/tables/tabla_newton.xlsx
+++ b/app/tables/tabla_newton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2+0i</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-9.85203026391962+0i</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.0000005</t>
+          <t>1.000005</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-1.94081210556785+0i</t>
+          <t>2.21424360312087</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-13.5825575817643+21.9911485751286i</t>
+          <t>-26.6302712393383</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.03049645777783</t>
+          <t>0.354864476416074</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,149 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.00759927675437-4.77369246395094i</t>
+          <t>1.16674765448471</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-17.086799638062+4.76574189469405i</t>
+          <t>-13.678949962338</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.1500233459578</t>
+          <t>0.897791347263332</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-1.77257584283229</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-6.94363979939362</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.65822157015321</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-3.66772137943643</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3.44598839162184</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.516709242754788</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-3.19849806177507</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.218523634218298</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.14670114178558</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-3.16442532963776</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.0011475026314019</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.0107674312356769</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-3.16424450940417</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3.23050833219568e-08</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.71448360112314e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-3.16424450431334</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-1.00093544563862e-15</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.6088614078435902e-09</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_newton.xlsx
+++ b/app/tables/tabla_newton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-74.1625989480318</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.000005</t>
+          <t>1.0000001</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2.21424360312087</t>
+          <t>124.411454631511</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-26.6302712393383</t>
+          <t>-51.0785344246869</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.354864476416074</t>
+          <t>0.983924309815975</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.16674765448471</t>
+          <t>506.898276023503</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-13.678949962338</t>
+          <t>-12.4258528532728</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.897791347263332</t>
+          <t>0.754563271338208</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-1.77257584283229</t>
+          <t>655.511596189056</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-6.94363979939362</t>
+          <t>-0.539400249375262</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.65822157015321</t>
+          <t>0.226713487647732</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-3.66772137943643</t>
+          <t>662.540094232166</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.44598839162184</t>
+          <t>-0.0009593573798554</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.516709242754788</t>
+          <t>0.0106084116331931</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-3.19849806177507</t>
+          <t>662.552639378594</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.218523634218298</t>
+          <t>-3.0275373319455e-09</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.14670114178558</t>
+          <t>1.89345656220124e-05</t>
         </is>
       </c>
     </row>
@@ -595,61 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-3.16442532963776</t>
+          <t>662.552639418184</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0011475026314019</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0107674312356769</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-3.16424450940417</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3.23050833219568e-08</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.71448360112314e-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-3.16424450431334</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-1.00093544563862e-15</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.6088614078435902e-09</t>
+          <t>5.97540305870696e-11</t>
         </is>
       </c>
     </row>
